--- a/src/main/resources/rules2.xlsx
+++ b/src/main/resources/rules2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gagan.gupta\IntellijIdeaProjects\LogAnalyzer\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D26A0C-946B-4221-B285-467AFE8A2805}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4164F710-96D3-4397-B066-917B8E7F1DA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{23E78A84-7340-4E68-AE3D-1D845B81F667}"/>
   </bookViews>
@@ -55,14 +55,14 @@
     <t>CONDITIONS</t>
   </si>
   <si>
-    <t>{
+    <t>[{
 	"message": "[LDAP: error code 49 - 80090308: LdapErr: DSID-0C09042F, comment: AcceptSecurityContext error, data 531, v2580 ]"
-}</t>
-  </si>
-  <si>
-    <t>{
+}]</t>
+  </si>
+  <si>
+    <t>[{
 	"message": "Security token is invalid. java.util.NoSuchElementException: No value present"
-}</t>
+}]</t>
   </si>
 </sst>
 </file>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714F7F56-6336-4F26-AB0D-719E73D15D1F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/rules2.xlsx
+++ b/src/main/resources/rules2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gagan.gupta\IntellijIdeaProjects\LogAnalyzer\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4164F710-96D3-4397-B066-917B8E7F1DA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD11BBF-5103-4068-91D4-BE4A7212FB77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{23E78A84-7340-4E68-AE3D-1D845B81F667}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RULE</t>
   </si>
@@ -42,14 +42,6 @@
   </si>
   <si>
     <t>R2</t>
-  </si>
-  <si>
-    <t>Solution1:
-1. Ask client for microsoft error debugging.</t>
-  </si>
-  <si>
-    <t>Solution2:
-1. Ask client for Security token .</t>
   </si>
   <si>
     <t>CONDITIONS</t>
@@ -63,6 +55,26 @@
     <t>[{
 	"message": "Security token is invalid. java.util.NoSuchElementException: No value present"
 }]</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Solution1: R1:
+1. Ask client for microsoft error debugging.</t>
+  </si>
+  <si>
+    <t>Solution2: R2: 
+1. Ask client for Security token .</t>
+  </si>
+  <si>
+    <t>[{
+	"message": "VALUEADDCO"
+}]</t>
+  </si>
+  <si>
+    <t>Solution2: R3:
+1. Problem is in VALUEADDCO, Ask client to change the value.</t>
   </si>
 </sst>
 </file>
@@ -417,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714F7F56-6336-4F26-AB0D-719E73D15D1F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -447,10 +459,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -458,11 +470,25 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/rules2.xlsx
+++ b/src/main/resources/rules2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gagan.gupta\IntellijIdeaProjects\LogAnalyzer\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD11BBF-5103-4068-91D4-BE4A7212FB77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0882763-8843-4B34-8621-F058C5275505}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{23E78A84-7340-4E68-AE3D-1D845B81F667}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>RULE</t>
   </si>
@@ -75,6 +75,18 @@
   <si>
     <t>Solution2: R3:
 1. Problem is in VALUEADDCO, Ask client to change the value.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDAP Configuration </t>
+  </si>
+  <si>
+    <t>Security Token Configuration Check</t>
+  </si>
+  <si>
+    <t>Value Addco Check</t>
   </si>
 </sst>
 </file>
@@ -429,66 +441,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714F7F56-6336-4F26-AB0D-719E73D15D1F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/rules2.xlsx
+++ b/src/main/resources/rules2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gagan.gupta\IntellijIdeaProjects\LogAnalyzer\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0882763-8843-4B34-8621-F058C5275505}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D560851F-6DC4-41CA-B388-E36D33497C57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{23E78A84-7340-4E68-AE3D-1D845B81F667}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>RULE</t>
   </si>
@@ -73,20 +73,35 @@
 }]</t>
   </si>
   <si>
-    <t>Solution2: R3:
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDAP Configuration </t>
+  </si>
+  <si>
+    <t>Security Token Configuration Check</t>
+  </si>
+  <si>
+    <t>Value Addco Check</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>AuthenticationServiceException Check</t>
+  </si>
+  <si>
+    <t>[{
+	"message": "org.springframework.security.authentication.AuthenticationServiceException: UM1010.user.not.found.in.active.directory"
+}]</t>
+  </si>
+  <si>
+    <t>Solution3: R3:
 1. Problem is in VALUEADDCO, Ask client to change the value.</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDAP Configuration </t>
-  </si>
-  <si>
-    <t>Security Token Configuration Check</t>
-  </si>
-  <si>
-    <t>Value Addco Check</t>
+    <t>Solution4: R4:
+1. Problem is in Authentication.</t>
   </si>
 </sst>
 </file>
@@ -443,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714F7F56-6336-4F26-AB0D-719E73D15D1F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -474,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -488,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -502,17 +517,28 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/rules2.xlsx
+++ b/src/main/resources/rules2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gagan.gupta\My Downloads\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1039EA-98C3-4C05-A754-97E19CA6B3C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B359BE0D-D543-438E-8937-3A078B69CCDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{23E78A84-7340-4E68-AE3D-1D845B81F667}"/>
   </bookViews>
@@ -67,44 +67,44 @@
     <t>(
 (
 ( ( {
-	"message": "DistributedMessaging1"
+	"message": "TOKEN: abc, TOKEN: def, TOKEN: ghi, REGEX:[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}, VAR: var1, REGEX:Bar[0-9]{2}-sector[0-9]{2}, VAR: var2 "
 } AND {
-	"message": "Watchdog"
+	"message": "TOKEN:Messaging"
 } ) OR ( {
-	"message": "subscriber"
+	"message": "TOKEN:Messaging"
 } AND {
-	"message": "updates1"
+	"message": "TOKEN:updates"
 }) )
 ) AND
 {
-	"message": "DistributedMessaging"
+	"message": "TOKEN:DistributedMessaging"
 }
 )
 OR
 {
-	"message": "DistributedMessaging Watchdog - subscriber watchdog looking for updates"
+	"message": "TOKEN:DistributedMessaging Watchdog - subscriber watchdog looking for updates"
 }</t>
   </si>
   <si>
     <t>(
 (
 ( ( {
-	"message": "DistributedMessaging1"
+	"message": "TOKEN:DistributedMessaging"
 } AND {
-	"message": "Watchdog"
+	"message": "TOKEN:Watchdog"
 } ) OR ( {
-	"message": "subscriber"
+	"message": "TOKEN:subscriber"
 } AND {
-	"message": "updates"
+	"message": "TOKEN:updates"
 }) )
 ) AND
 {
-	"message": "DistributedMessaging"
+	"message": "TOKEN:DistributedMessaging"
 }
 )
 OR
 {
-	"message": "111DistributedMessaging Watchdog - subscriber watchdog looking for updates"
+	"message": "TOKEN:DistributedMessaging Watchdog - subscriber watchdog looking for updates"
 }</t>
   </si>
 </sst>
@@ -463,7 +463,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>

--- a/src/main/resources/rules2.xlsx
+++ b/src/main/resources/rules2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gagan.gupta\My Downloads\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B359BE0D-D543-438E-8937-3A078B69CCDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57434881-E8D0-47B2-879A-65E21BA32F4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{23E78A84-7340-4E68-AE3D-1D845B81F667}"/>
   </bookViews>
@@ -67,28 +67,6 @@
     <t>(
 (
 ( ( {
-	"message": "TOKEN: abc, TOKEN: def, TOKEN: ghi, REGEX:[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}, VAR: var1, REGEX:Bar[0-9]{2}-sector[0-9]{2}, VAR: var2 "
-} AND {
-	"message": "TOKEN:Messaging"
-} ) OR ( {
-	"message": "TOKEN:Messaging"
-} AND {
-	"message": "TOKEN:updates"
-}) )
-) AND
-{
-	"message": "TOKEN:DistributedMessaging"
-}
-)
-OR
-{
-	"message": "TOKEN:DistributedMessaging Watchdog - subscriber watchdog looking for updates"
-}</t>
-  </si>
-  <si>
-    <t>(
-(
-( ( {
 	"message": "TOKEN:DistributedMessaging"
 } AND {
 	"message": "TOKEN:Watchdog"
@@ -105,6 +83,28 @@
 OR
 {
 	"message": "TOKEN:DistributedMessaging Watchdog - subscriber watchdog looking for updates"
+}</t>
+  </si>
+  <si>
+    <t>(
+(
+( ( {
+	"message": "TOKEN: abc, TOKEN: def, TOKEN: ghi, REGEX:[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}, VAR: var1, REGEX:Bar[0-9]{2}-sector[0-9]{2}, VAR: var2 "
+} AND {
+	"message": "TOKEN:Messaging, VAR:{var2}"
+} ) OR ( {
+	"message": "TOKEN:Messaging, VAR:{var2}"
+} AND {
+	"message": "TOKEN:updates, VAR:{var2}"
+}) )
+) AND
+{
+	"message": "TOKEN:DistributedMessaging, VAR:{var2}"
+}
+)
+OR
+{
+	"message": "TOKEN:DistributedMessaging Watchdog - subscriber watchdog looking for updates, VAR:{var2}"
 }</t>
   </si>
 </sst>
@@ -463,7 +463,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>

--- a/src/main/resources/rules2.xlsx
+++ b/src/main/resources/rules2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gagan.gupta\My Downloads\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57434881-E8D0-47B2-879A-65E21BA32F4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D9F074-8BBE-4B64-AA01-C6AF7732A3C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{23E78A84-7340-4E68-AE3D-1D845B81F667}"/>
   </bookViews>
@@ -91,20 +91,20 @@
 ( ( {
 	"message": "TOKEN: abc, TOKEN: def, TOKEN: ghi, REGEX:[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}, VAR: var1, REGEX:Bar[0-9]{2}-sector[0-9]{2}, VAR: var2 "
 } AND {
-	"message": "TOKEN:Messaging, VAR:{var2}"
+	"message": "TOKEN:Node down, VAR:{var1}"
 } ) OR ( {
-	"message": "TOKEN:Messaging, VAR:{var2}"
+	"message": "TOKEN:Node down, VAR:{var1}"
 } AND {
-	"message": "TOKEN:updates, VAR:{var2}"
+	"message": "TOKEN:Node down, VAR:{var1}"
 }) )
 ) AND
 {
-	"message": "TOKEN:DistributedMessaging, VAR:{var2}"
+	"message": "TOKEN:Node down, VAR:{var1}"
 }
 )
 OR
 {
-	"message": "TOKEN:DistributedMessaging Watchdog - subscriber watchdog looking for updates, VAR:{var2}"
+	"message": "TOKEN:Node down, VAR:{var1}"
 }</t>
   </si>
 </sst>

--- a/src/main/resources/rules2.xlsx
+++ b/src/main/resources/rules2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gagan.gupta\My Downloads\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D9F074-8BBE-4B64-AA01-C6AF7732A3C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594A5430-A983-4716-B04A-A1926CE4BB31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{23E78A84-7340-4E68-AE3D-1D845B81F667}"/>
   </bookViews>
@@ -90,11 +90,11 @@
 (
 ( ( {
 	"message": "TOKEN: abc, TOKEN: def, TOKEN: ghi, REGEX:[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}, VAR: var1, REGEX:Bar[0-9]{2}-sector[0-9]{2}, VAR: var2 "
-} AND {
+} AND AFTER 00:00:00:980 {
 	"message": "TOKEN:Node down, VAR:{var1}"
 } ) OR ( {
 	"message": "TOKEN:Node down, VAR:{var1}"
-} AND {
+} AND BEFORE 00:00:00:876 {
 	"message": "TOKEN:Node down, VAR:{var1}"
 }) )
 ) AND
@@ -463,7 +463,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/rules2.xlsx
+++ b/src/main/resources/rules2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gagan.gupta\My Downloads\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594A5430-A983-4716-B04A-A1926CE4BB31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06640FFD-04DF-4EA7-B662-ED605E8C32F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{23E78A84-7340-4E68-AE3D-1D845B81F667}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>RULE</t>
   </si>
@@ -90,7 +90,7 @@
 (
 ( ( {
 	"message": "TOKEN: abc, TOKEN: def, TOKEN: ghi, REGEX:[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}, VAR: var1, REGEX:Bar[0-9]{2}-sector[0-9]{2}, VAR: var2 "
-} AND AFTER 00:00:00:980 {
+} AND AFTER 00:00:00:100 {
 	"message": "TOKEN:Node down, VAR:{var1}"
 } ) OR ( {
 	"message": "TOKEN:Node down, VAR:{var1}"
@@ -106,6 +106,23 @@
 {
 	"message": "TOKEN:Node down, VAR:{var1}"
 }</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Node Down</t>
+  </si>
+  <si>
+    <t>Solution3: R3:
+1. Node Down Errror.</t>
+  </si>
+  <si>
+    <t>( {
+	"message": "TOKEN: abc, TOKEN: def, TOKEN: ghi, REGEX:[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}, VAR: var1, REGEX:Bar[0-9]{2}-sector[0-9]{2}, VAR: var2 "
+} AND AFTER 00:00:00:100 {
+	"message": "TOKEN:Node down, VAR:{var1}"
+} )</t>
   </si>
 </sst>
 </file>
@@ -460,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714F7F56-6336-4F26-AB0D-719E73D15D1F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +534,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/rules2.xlsx
+++ b/src/main/resources/rules2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gagan.gupta\My Downloads\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06640FFD-04DF-4EA7-B662-ED605E8C32F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5914C00-3EDC-4B72-922F-F2A75324B0FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{23E78A84-7340-4E68-AE3D-1D845B81F667}"/>
   </bookViews>
@@ -120,7 +120,7 @@
   <si>
     <t>( {
 	"message": "TOKEN: abc, TOKEN: def, TOKEN: ghi, REGEX:[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}-[0-9a-z]{4}, VAR: var1, REGEX:Bar[0-9]{2}-sector[0-9]{2}, VAR: var2 "
-} AND AFTER 00:00:00:100 {
+} AND AFTER 00:00:00:10 {
 	"message": "TOKEN:Node down, VAR:{var1}"
 } )</t>
   </si>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
